--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
   <si>
     <t>土地坐落</t>
   </si>
@@ -203,6 +203,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -218,7 +221,10 @@
     <t>立益紡織股份有限公司</t>
   </si>
   <si>
-    <t>國票金融控股股份有限公 司</t>
+    <t>國票金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-25</t>
@@ -1338,13 +1344,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1372,13 +1378,16 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1396,21 +1405,24 @@
         <v>7870</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1428,21 +1440,24 @@
         <v>28980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1460,12 +1475,15 @@
         <v>20530</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>734</v>
       </c>
     </row>
@@ -1484,22 +1502,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>40</v>
@@ -1510,13 +1528,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>62.82</v>
@@ -1536,13 +1554,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>19.8335</v>
@@ -1562,13 +1580,13 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>664.39</v>
@@ -1588,13 +1606,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
         <v>26.46</v>
@@ -1614,13 +1632,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2">
         <v>14.192</v>
@@ -1640,13 +1658,13 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2">
         <v>365.31</v>
@@ -1666,13 +1684,13 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>569.51</v>
@@ -1692,13 +1710,13 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2">
         <v>619.37</v>
@@ -1718,13 +1736,13 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2">
         <v>11.55</v>
@@ -1744,13 +1762,13 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2">
         <v>600.758</v>
@@ -1780,22 +1798,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1803,22 +1821,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1826,22 +1844,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>3370214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1849,22 +1867,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>3346980</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1872,22 +1890,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>1238216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1895,22 +1913,22 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
         <v>14845158</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1918,22 +1936,22 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2">
         <v>8482622</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1951,22 +1969,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1977,19 +1995,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2000,19 +2018,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="123">
   <si>
     <t>土地坐落</t>
   </si>
@@ -206,6 +206,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>環球水泥股份有限公司</t>
   </si>
   <si>
@@ -227,7 +236,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpa37b1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1344,13 +1359,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1381,13 +1396,22 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1405,24 +1429,33 @@
         <v>7870</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
+        <v>734</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2">
         <v>68</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1440,24 +1473,33 @@
         <v>28980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>734</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1475,16 +1517,25 @@
         <v>20530</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>734</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1502,22 +1553,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>40</v>
@@ -1528,13 +1579,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>62.82</v>
@@ -1554,13 +1605,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2">
         <v>19.8335</v>
@@ -1580,13 +1631,13 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
         <v>664.39</v>
@@ -1606,13 +1657,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>26.46</v>
@@ -1632,13 +1683,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>14.192</v>
@@ -1658,13 +1709,13 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>365.31</v>
@@ -1684,13 +1735,13 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2">
         <v>569.51</v>
@@ -1710,13 +1761,13 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2">
         <v>619.37</v>
@@ -1736,13 +1787,13 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2">
         <v>11.55</v>
@@ -1762,13 +1813,13 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2">
         <v>600.758</v>
@@ -1798,22 +1849,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1821,22 +1872,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1844,22 +1895,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2">
         <v>3370214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1867,22 +1918,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2">
         <v>3346980</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1890,22 +1941,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>1238216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1913,22 +1964,22 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2">
         <v>14845158</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1936,22 +1987,22 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>8482622</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1969,22 +2020,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1995,19 +2046,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2018,19 +2069,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,9 +21,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="123">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="125">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區過田子段10820000地號</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區玲雅寮段07450000地號</t>
+  </si>
+  <si>
+    <t>高雄市左營區新庄段十三小段13680003地號</t>
+  </si>
+  <si>
+    <t>高雄市左營區新庄段三小段03900002地號</t>
+  </si>
+  <si>
+    <t>100000分之372</t>
+  </si>
+  <si>
+    <t>100000分之800</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>陳其邁</t>
+  </si>
+  <si>
+    <t>吳虹</t>
+  </si>
+  <si>
+    <t>95年11月.27曰</t>
+  </si>
+  <si>
+    <t>94年10月03日</t>
+  </si>
+  <si>
+    <t>94年03月28日</t>
+  </si>
+  <si>
+    <t>100年07月20曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>III!買買</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-25</t>
+  </si>
+  <si>
+    <t>tmpa37b1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,76 +146,25 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市苓雅區過田子段 1082-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區玲雅寮段 0745-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市左營區新庄段十三小段 1368-0003 地號</t>
-  </si>
-  <si>
-    <t>高雄市左營區新庄段三小段 0390-0002 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之372</t>
-  </si>
-  <si>
-    <t>100000 分 之800</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>陳其邁</t>
-  </si>
-  <si>
-    <t>吳虹</t>
-  </si>
-  <si>
-    <t>95年11月 .27曰</t>
-  </si>
-  <si>
-    <t>94年10月 03日</t>
-  </si>
-  <si>
-    <t>94年03月 28日</t>
-  </si>
-  <si>
-    <t>100 年 07 月20曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>III! 買買</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區過田子段 11053-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市苓雅區苓雅寮段 03984-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市左營區新庄段十三小段 05317-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市左營區新庄段三小段 00766-000 建號</t>
-  </si>
-  <si>
-    <t>100000 分 之342</t>
-  </si>
-  <si>
-    <t>10000分之 78</t>
-  </si>
-  <si>
-    <t>100 年 07 月20日</t>
+    <t>高雄市苓雅區過田子段11053000建號</t>
+  </si>
+  <si>
+    <t>高雄市苓雅區苓雅寮段03984000建號</t>
+  </si>
+  <si>
+    <t>高雄市左營區新庄段十三小段05317000建號</t>
+  </si>
+  <si>
+    <t>高雄市左營區新庄段三小段00766000建號</t>
+  </si>
+  <si>
+    <t>100000分之342</t>
+  </si>
+  <si>
+    <t>10000分之78</t>
+  </si>
+  <si>
+    <t>100年07月20日</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -146,16 +197,16 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中國信託商業銀行民族分 行</t>
+    <t>中國信託商業銀行民族分行</t>
   </si>
   <si>
     <t>中國信託銀行民族分行</t>
   </si>
   <si>
-    <t>高雄凹仔底郵局(高雄8 2 支）</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行高雄 分行</t>
+    <t>高雄凹仔底郵局(高雄82支）</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行高雄分行</t>
   </si>
   <si>
     <t>台灣銀行大昌分行</t>
@@ -185,12 +236,6 @@
     <t>陳〇通</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -203,27 +248,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>環球水泥股份有限公司</t>
   </si>
   <si>
@@ -236,15 +260,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-25</t>
-  </si>
-  <si>
-    <t>tmpa37b1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -260,28 +275,28 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>富達新興市場基 金</t>
-  </si>
-  <si>
-    <t>富達新興市場基 金(美元）</t>
-  </si>
-  <si>
-    <t>貝萊德美國優質 債券基金</t>
-  </si>
-  <si>
-    <t>天達環球債券基 金</t>
-  </si>
-  <si>
-    <t>瀚亞美國優質債 券基金</t>
-  </si>
-  <si>
-    <t>摩根富林明俄羅 斯基金</t>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>富達新興市場基金(美元）</t>
+  </si>
+  <si>
+    <t>貝萊德美國優質債券基金</t>
+  </si>
+  <si>
+    <t>天達環球債券基金</t>
+  </si>
+  <si>
+    <t>瀚亞美國優質債券基金</t>
+  </si>
+  <si>
+    <t>摩根富林明俄羅斯基金</t>
   </si>
   <si>
     <t>美國政府基金</t>
   </si>
   <si>
-    <t>中國信託商業 銀行</t>
+    <t>中國信託商業銀行</t>
   </si>
   <si>
     <t>種</t>
@@ -299,9 +314,6 @@
     <t>債務人及地址</t>
   </si>
   <si>
-    <t>種 類</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -314,40 +326,40 @@
     <t>債權人及地址</t>
   </si>
   <si>
-    <t>大眾銀行一博愛分行 高雄市左營區新庄仔路</t>
-  </si>
-  <si>
-    <t>大眾銀行-博愛分行 高雄市左營區新庄仔路</t>
-  </si>
-  <si>
-    <t>大眾銀行一博愛分行 高雄市左營區太原街</t>
-  </si>
-  <si>
-    <t>大眾銀行-博愛分行 高雄市左營區太原街</t>
-  </si>
-  <si>
-    <t>餘 額</t>
-  </si>
-  <si>
-    <t>取得（發生） 時 間</t>
-  </si>
-  <si>
-    <t>93年02月 27日</t>
-  </si>
-  <si>
-    <t>96年08月 15日</t>
-  </si>
-  <si>
-    <t>99年09月 13曰</t>
-  </si>
-  <si>
-    <t>100年07月 25日</t>
-  </si>
-  <si>
-    <t>100年02月 24日</t>
-  </si>
-  <si>
-    <t>取得（發生） 原 因</t>
+    <t>大眾銀行一博愛分行高雄市左營區新庄仔路</t>
+  </si>
+  <si>
+    <t>大眾銀行博愛分行高雄市左營區新庄仔路</t>
+  </si>
+  <si>
+    <t>大眾銀行一博愛分行高雄市左營區太原街</t>
+  </si>
+  <si>
+    <t>大眾銀行博愛分行高雄市左營區太原街</t>
+  </si>
+  <si>
+    <t>餘額</t>
+  </si>
+  <si>
+    <t>取得（發生）時間</t>
+  </si>
+  <si>
+    <t>93年02月27日</t>
+  </si>
+  <si>
+    <t>96年08月15日</t>
+  </si>
+  <si>
+    <t>99年09月13曰</t>
+  </si>
+  <si>
+    <t>100年07月25日</t>
+  </si>
+  <si>
+    <t>100年02月24日</t>
+  </si>
+  <si>
+    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>貸款</t>
@@ -365,12 +377,6 @@
     <t>投資金額</t>
   </si>
   <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>吳虹婦產科診所</t>
   </si>
   <si>
@@ -380,10 +386,10 @@
     <t>高雄市新庄仔路273號</t>
   </si>
   <si>
-    <t>94年09月 01曰</t>
-  </si>
-  <si>
-    <t>98年08月 10闩</t>
+    <t>94年09月01曰</t>
+  </si>
+  <si>
+    <t>98年08月10闩</t>
   </si>
   <si>
     <t>開業</t>
@@ -748,13 +754,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,109 +782,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>19.33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2">
+        <v>734</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>18.32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>734</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2">
+        <v>734</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2">
         <v>8406530</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2">
+        <v>734</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -896,25 +1007,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -922,25 +1033,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>161.4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -948,25 +1059,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>111.41</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -974,25 +1085,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>331.96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1000,22 +1111,22 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>280.03</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2">
         <v>1215000</v>
@@ -1036,13 +1147,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1050,13 +1161,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2">
         <v>2435</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1074,22 +1185,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1097,16 +1208,16 @@
         <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1118,16 +1229,16 @@
         <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>730.12</v>
@@ -1141,16 +1252,16 @@
         <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>500</v>
@@ -1164,16 +1275,16 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1185,16 +1296,16 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1206,16 +1317,16 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F7" s="2">
         <v>341.63</v>
@@ -1229,16 +1340,16 @@
         <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2">
         <v>140.81</v>
@@ -1252,16 +1363,16 @@
         <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1273,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1294,16 +1405,16 @@
         <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1315,16 +1426,16 @@
         <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1336,16 +1447,16 @@
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1367,43 +1478,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1411,10 +1522,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>787</v>
@@ -1423,28 +1534,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>7870</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2">
         <v>734</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
         <v>68</v>
@@ -1455,10 +1566,10 @@
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>2898</v>
@@ -1467,28 +1578,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>28980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2">
         <v>734</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="N3" s="2">
         <v>69</v>
@@ -1499,10 +1610,10 @@
         <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>2053</v>
@@ -1511,28 +1622,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>20530</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2">
         <v>734</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2">
         <v>70</v>
@@ -1553,25 +1664,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1579,13 +1690,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>62.82</v>
@@ -1594,7 +1705,7 @@
         <v>20.51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2">
         <v>37538.65</v>
@@ -1605,13 +1716,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>19.8335</v>
@@ -1620,7 +1731,7 @@
         <v>67.2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2">
         <v>38831.45</v>
@@ -1631,13 +1742,13 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>664.39</v>
@@ -1646,7 +1757,7 @@
         <v>27.65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2">
         <v>535221.12</v>
@@ -1657,13 +1768,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2">
         <v>26.46</v>
@@ -1672,7 +1783,7 @@
         <v>26.22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2">
         <v>20213.32</v>
@@ -1683,13 +1794,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>14.192</v>
@@ -1698,7 +1809,7 @@
         <v>14.84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2">
         <v>6136.1</v>
@@ -1709,13 +1820,13 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>365.31</v>
@@ -1724,7 +1835,7 @@
         <v>14.84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2">
         <v>157946.67</v>
@@ -1735,13 +1846,13 @@
         <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>569.51</v>
@@ -1750,7 +1861,7 @@
         <v>27.65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H8" s="2">
         <v>458787.43</v>
@@ -1761,13 +1872,13 @@
         <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2">
         <v>619.37</v>
@@ -1776,7 +1887,7 @@
         <v>27.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H9" s="2">
         <v>498953.79</v>
@@ -1787,13 +1898,13 @@
         <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2">
         <v>11.55</v>
@@ -1802,7 +1913,7 @@
         <v>12.35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H10" s="2">
         <v>4155.89</v>
@@ -1813,13 +1924,13 @@
         <v>89</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2">
         <v>600.758</v>
@@ -1828,7 +1939,7 @@
         <v>9.81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="H11" s="2">
         <v>171705.26</v>
@@ -1849,22 +1960,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1872,22 +1983,22 @@
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1895,22 +2006,22 @@
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>3370214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1918,22 +2029,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2">
         <v>3346980</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1941,22 +2052,22 @@
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2">
         <v>1238216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1964,22 +2075,22 @@
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2">
         <v>14845158</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1987,22 +2098,22 @@
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2">
         <v>8482622</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2020,22 +2131,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2043,22 +2154,22 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2066,22 +2177,22 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>高雄市苓雅區過田子段10820000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>高雄市苓雅區玲雅寮段07450000地號</t>
@@ -77,9 +80,6 @@
     <t>高雄市左營區新庄段三小段03900002地號</t>
   </si>
   <si>
-    <t>100000分之372</t>
-  </si>
-  <si>
     <t>100000分之800</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
     <t>吳虹</t>
   </si>
   <si>
-    <t>95年11月.27曰</t>
-  </si>
-  <si>
     <t>94年10月03日</t>
   </si>
   <si>
@@ -125,30 +122,12 @@
     <t>tmpa37b1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>高雄市苓雅區過田子段11053000建號</t>
   </si>
   <si>
+    <t>100000分之342</t>
+  </si>
+  <si>
     <t>高雄市苓雅區苓雅寮段03984000建號</t>
   </si>
   <si>
@@ -158,160 +137,112 @@
     <t>高雄市左營區新庄段三小段00766000建號</t>
   </si>
   <si>
-    <t>100000分之342</t>
-  </si>
-  <si>
     <t>10000分之78</t>
   </si>
   <si>
     <t>100年07月20日</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
     <t>富豪VOLVO</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
+    <t>中國信託商業銀行民族分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>中國信託銀行民族分行</t>
+  </si>
+  <si>
+    <t>高雄凹仔底郵局(高雄82支）</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>台灣銀行大昌分行</t>
+  </si>
+  <si>
+    <t>台灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>&gt;舌期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>曰圓</t>
+  </si>
+  <si>
+    <t>陳〇圓</t>
+  </si>
+  <si>
+    <t>陳〇通</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>立益紡織股份有限公司</t>
+  </si>
+  <si>
+    <t>國票金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>富達新興市場基金</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>富達新興市場基金(美元）</t>
+  </si>
+  <si>
+    <t>貝萊德美國優質債券基金</t>
+  </si>
+  <si>
+    <t>天達環球債券基金</t>
+  </si>
+  <si>
+    <t>瀚亞美國優質債券基金</t>
+  </si>
+  <si>
+    <t>摩根富林明俄羅斯基金</t>
+  </si>
+  <si>
+    <t>美國政府基金</t>
   </si>
   <si>
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行民族分行</t>
-  </si>
-  <si>
-    <t>中國信託銀行民族分行</t>
-  </si>
-  <si>
-    <t>高雄凹仔底郵局(高雄82支）</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>台灣銀行大昌分行</t>
-  </si>
-  <si>
-    <t>台灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>&gt;舌期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>曰圓</t>
-  </si>
-  <si>
-    <t>陳〇圓</t>
-  </si>
-  <si>
-    <t>陳〇通</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>環球水泥股份有限公司</t>
-  </si>
-  <si>
-    <t>立益紡織股份有限公司</t>
-  </si>
-  <si>
-    <t>國票金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受ft投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>富達新興市場基金</t>
-  </si>
-  <si>
-    <t>富達新興市場基金(美元）</t>
-  </si>
-  <si>
-    <t>貝萊德美國優質債券基金</t>
-  </si>
-  <si>
-    <t>天達環球債券基金</t>
-  </si>
-  <si>
-    <t>瀚亞美國優質債券基金</t>
-  </si>
-  <si>
-    <t>摩根富林明俄羅斯基金</t>
-  </si>
-  <si>
-    <t>美國政府基金</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>債</t>
-  </si>
-  <si>
-    <t>權</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
+    <t>債務人</t>
+  </si>
+  <si>
+    <t>債權人及地址</t>
+  </si>
+  <si>
+    <t>餘額</t>
+  </si>
+  <si>
+    <t>取得（發生）時間</t>
+  </si>
+  <si>
+    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -320,12 +251,6 @@
     <t>信用貸款</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
     <t>大眾銀行一博愛分行高雄市左營區新庄仔路</t>
   </si>
   <si>
@@ -338,12 +263,6 @@
     <t>大眾銀行博愛分行高雄市左營區太原街</t>
   </si>
   <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
     <t>93年02月27日</t>
   </si>
   <si>
@@ -359,40 +278,25 @@
     <t>100年02月24日</t>
   </si>
   <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>貸款</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>吳虹婦產科診所</t>
   </si>
   <si>
+    <t>高雄市新庄仔路273號</t>
+  </si>
+  <si>
+    <t>94年09月01曰</t>
+  </si>
+  <si>
+    <t>開業</t>
+  </si>
+  <si>
     <t>蓬萊島雜誌社</t>
   </si>
   <si>
-    <t>高雄市新庄仔路273號</t>
-  </si>
-  <si>
-    <t>94年09月01曰</t>
-  </si>
-  <si>
     <t>98年08月10闩</t>
-  </si>
-  <si>
-    <t>開業</t>
   </si>
   <si>
     <t>復刊</t>
@@ -754,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,19 +707,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>19.33</v>
+        <v>18.32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -824,19 +734,19 @@
         <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>21</v>
@@ -845,45 +755,51 @@
         <v>734</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.008</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.14656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>18.32</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
@@ -892,21 +808,27 @@
         <v>734</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -920,17 +842,17 @@
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="2">
+        <v>8406530</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>21</v>
@@ -939,57 +861,16 @@
         <v>734</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8406530</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2">
-        <v>734</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +880,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1007,88 +888,88 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>161.4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>161.4</v>
+        <v>111.41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>331.96</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2">
-        <v>111.41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
-        <v>331.96</v>
+        <v>280.03</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1097,38 +978,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>280.03</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2">
         <v>1215000</v>
       </c>
     </row>
@@ -1139,35 +994,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2435</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2435</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1185,281 +1026,258 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>45556</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>730.12</v>
+      </c>
       <c r="G2" s="2">
-        <v>45556</v>
+        <v>21272.05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>730.12</v>
+        <v>500</v>
       </c>
       <c r="G3" s="2">
-        <v>21272.05</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>500</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>177</v>
+        <v>25625</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>25625</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="F6" s="2">
+        <v>341.63</v>
+      </c>
       <c r="G6" s="2">
-        <v>4840</v>
+        <v>9953.39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2">
-        <v>341.63</v>
+        <v>140.81</v>
       </c>
       <c r="G7" s="2">
-        <v>9953.39</v>
+        <v>4102.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="2">
-        <v>140.81</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>4102.5</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>1808</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>606</v>
+        <v>917643</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>917643</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>7508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
         <v>19000</v>
       </c>
     </row>
@@ -1470,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1484,16 +1302,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1519,34 +1337,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>787</v>
+        <v>2898</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2">
-        <v>7870</v>
+        <v>28980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>21</v>
@@ -1555,42 +1373,42 @@
         <v>734</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>2898</v>
+        <v>2053</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
-        <v>28980</v>
+        <v>20530</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>21</v>
@@ -1599,53 +1417,9 @@
         <v>734</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2053</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="2">
-        <v>20530</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="2">
-        <v>734</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="2">
         <v>70</v>
       </c>
     </row>
@@ -1656,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1664,284 +1438,258 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="E1" s="1">
+        <v>62.82</v>
+      </c>
+      <c r="F1" s="1">
+        <v>20.51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="H1" s="1">
+        <v>37538.65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
-        <v>62.82</v>
+        <v>19.8335</v>
       </c>
       <c r="F2" s="2">
-        <v>20.51</v>
+        <v>67.2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
-        <v>37538.65</v>
+        <v>38831.45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
-        <v>19.8335</v>
+        <v>664.39</v>
       </c>
       <c r="F3" s="2">
-        <v>67.2</v>
+        <v>27.65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2">
-        <v>38831.45</v>
+        <v>535221.12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
-        <v>664.39</v>
+        <v>26.46</v>
       </c>
       <c r="F4" s="2">
-        <v>27.65</v>
+        <v>26.22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
-        <v>535221.12</v>
+        <v>20213.32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
-        <v>26.46</v>
+        <v>14.192</v>
       </c>
       <c r="F5" s="2">
-        <v>26.22</v>
+        <v>14.84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2">
-        <v>20213.32</v>
+        <v>6136.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2">
-        <v>14.192</v>
+        <v>365.31</v>
       </c>
       <c r="F6" s="2">
         <v>14.84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
-        <v>6136.1</v>
+        <v>157946.67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2">
-        <v>365.31</v>
+        <v>569.51</v>
       </c>
       <c r="F7" s="2">
-        <v>14.84</v>
+        <v>27.65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2">
-        <v>157946.67</v>
+        <v>458787.43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2">
-        <v>569.51</v>
+        <v>619.37</v>
       </c>
       <c r="F8" s="2">
         <v>27.65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2">
-        <v>458787.43</v>
+        <v>498953.79</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2">
-        <v>619.37</v>
+        <v>11.55</v>
       </c>
       <c r="F9" s="2">
-        <v>27.65</v>
+        <v>12.35</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
-        <v>498953.79</v>
+        <v>4155.89</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2">
-        <v>11.55</v>
+        <v>600.758</v>
       </c>
       <c r="F10" s="2">
-        <v>12.35</v>
+        <v>9.81</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2">
-        <v>4155.89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>89</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="2">
-        <v>600.758</v>
-      </c>
-      <c r="F11" s="2">
-        <v>9.81</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="2">
         <v>171705.26</v>
       </c>
     </row>
@@ -1952,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,160 +1708,137 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3370214</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
-        <v>3370214</v>
+        <v>3346980</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
-        <v>3346980</v>
+        <v>1238216</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
-        <v>1238216</v>
+        <v>14845158</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
-        <v>14845158</v>
+        <v>8482622</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>115</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8482622</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +1848,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2131,68 +1856,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市苓雅區過田子段10820000地號</t>
+  </si>
+  <si>
     <t>高雄市苓雅區玲雅寮段07450000地號</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>高雄市左營區新庄段三小段03900002地號</t>
   </si>
   <si>
+    <t>100000分之372</t>
+  </si>
+  <si>
     <t>100000分之800</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>吳虹</t>
   </si>
   <si>
+    <t>95年11月.27曰</t>
+  </si>
+  <si>
     <t>94年10月03日</t>
   </si>
   <si>
@@ -125,18 +134,18 @@
     <t>高雄市苓雅區過田子段11053000建號</t>
   </si>
   <si>
+    <t>高雄市苓雅區苓雅寮段03984000建號</t>
+  </si>
+  <si>
+    <t>高雄市左營區新庄段十三小段05317000建號</t>
+  </si>
+  <si>
+    <t>高雄市左營區新庄段三小段00766000建號</t>
+  </si>
+  <si>
     <t>100000分之342</t>
   </si>
   <si>
-    <t>高雄市苓雅區苓雅寮段03984000建號</t>
-  </si>
-  <si>
-    <t>高雄市左營區新庄段十三小段05317000建號</t>
-  </si>
-  <si>
-    <t>高雄市左營區新庄段三小段00766000建號</t>
-  </si>
-  <si>
     <t>10000分之78</t>
   </si>
   <si>
@@ -192,6 +201,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>環球水泥股份有限公司</t>
   </si>
   <si>
     <t>立益紡織股份有限公司</t>
@@ -658,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,160 +728,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>18.32</v>
+        <v>19.33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>734</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.008</v>
+        <v>0.00372</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.14656</v>
+        <v>0.0719076</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>172</v>
+        <v>18.32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>734</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0.008</v>
       </c>
       <c r="Q3" s="2">
-        <v>172</v>
+        <v>0.14656</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2">
-        <v>8406530</v>
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>734</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8406530</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>734</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>110</v>
       </c>
     </row>
@@ -880,111 +945,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>161.4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1">
-        <v>161.4</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>734</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="P2" s="2">
+        <v>0.00342</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.551988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>111.41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>734</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="P3" s="2">
+        <v>0.0078</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.868998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
+        <v>331.96</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>734</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2">
-        <v>111.41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="O4" s="2">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>331.96</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>280.03</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1215000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>734</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>280.03</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1215000</v>
       </c>
     </row>
   </sheetData>
@@ -994,21 +1220,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1">
         <v>2435</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2435</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1258,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1026,16 +1266,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1044,240 +1284,261 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2">
-        <v>730.12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>21272.05</v>
+        <v>45556</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>500</v>
+        <v>730.12</v>
       </c>
       <c r="G3" s="2">
-        <v>177</v>
+        <v>21272.05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>500</v>
+      </c>
       <c r="G4" s="2">
-        <v>25625</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>4840</v>
+        <v>25625</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2">
-        <v>341.63</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>9953.39</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2">
-        <v>140.81</v>
+        <v>341.63</v>
       </c>
       <c r="G7" s="2">
-        <v>4102.5</v>
+        <v>9953.39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="F8" s="2">
+        <v>140.81</v>
+      </c>
       <c r="G8" s="2">
-        <v>1808</v>
+        <v>4102.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>606</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>917643</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>7508</v>
+        <v>917643</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
         <v>19000</v>
       </c>
     </row>
@@ -1288,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1302,13 +1563,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1337,89 +1598,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>2898</v>
+        <v>787</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
-        <v>28980</v>
+        <v>7870</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>734</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>2053</v>
+        <v>2898</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
-        <v>20530</v>
+        <v>28980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2">
         <v>734</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2053</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20530</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2">
+        <v>734</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2">
         <v>70</v>
       </c>
     </row>
@@ -1430,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1438,13 +1743,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1">
         <v>62.82</v>
@@ -1453,7 +1758,7 @@
         <v>20.51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1">
         <v>37538.65</v>
@@ -1461,235 +1766,261 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
-        <v>19.8335</v>
+        <v>62.82</v>
       </c>
       <c r="F2" s="2">
-        <v>67.2</v>
+        <v>20.51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
-        <v>38831.45</v>
+        <v>37538.65</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2">
-        <v>664.39</v>
+        <v>19.8335</v>
       </c>
       <c r="F3" s="2">
-        <v>27.65</v>
+        <v>67.2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
-        <v>535221.12</v>
+        <v>38831.45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2">
-        <v>26.46</v>
+        <v>664.39</v>
       </c>
       <c r="F4" s="2">
-        <v>26.22</v>
+        <v>27.65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2">
-        <v>20213.32</v>
+        <v>535221.12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E5" s="2">
-        <v>14.192</v>
+        <v>26.46</v>
       </c>
       <c r="F5" s="2">
-        <v>14.84</v>
+        <v>26.22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2">
-        <v>6136.1</v>
+        <v>20213.32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E6" s="2">
-        <v>365.31</v>
+        <v>14.192</v>
       </c>
       <c r="F6" s="2">
         <v>14.84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
-        <v>157946.67</v>
+        <v>6136.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>365.31</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14.84</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="2">
-        <v>569.51</v>
-      </c>
-      <c r="F7" s="2">
-        <v>27.65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" s="2">
-        <v>458787.43</v>
+        <v>157946.67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
-        <v>619.37</v>
+        <v>569.51</v>
       </c>
       <c r="F8" s="2">
         <v>27.65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2">
-        <v>498953.79</v>
+        <v>458787.43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2">
-        <v>11.55</v>
+        <v>619.37</v>
       </c>
       <c r="F9" s="2">
-        <v>12.35</v>
+        <v>27.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9" s="2">
-        <v>4155.89</v>
+        <v>498953.79</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
+        <v>88</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11.55</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12.35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4155.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>89</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>600.758</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9.81</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2">
-        <v>600.758</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9.81</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>171705.26</v>
       </c>
     </row>
@@ -1700,7 +2031,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1708,137 +2039,160 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="2">
-        <v>3370214</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
-        <v>3346980</v>
+        <v>3370214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
-        <v>1238216</v>
+        <v>3346980</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2">
-        <v>14845158</v>
+        <v>1238216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="2">
+        <v>14845158</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>115</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2">
         <v>8482622</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>85</v>
+      <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +2202,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,45 +2210,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2">
         <v>100000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>92</v>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -152,7 +152,16 @@
     <t>100年07月20日</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>富豪VOLVO</t>
+  </si>
+  <si>
+    <t>91年10月07日</t>
+  </si>
+  <si>
+    <t>貿賣</t>
   </si>
   <si>
     <t>中國信託商業銀行民族分行</t>
@@ -1220,35 +1229,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1">
-        <v>2435</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>2435</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>734</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1266,13 +1335,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1284,16 +1353,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1305,16 +1374,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1328,16 +1397,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1351,19 +1420,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1372,19 +1441,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1393,19 +1462,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2">
         <v>341.63</v>
@@ -1416,19 +1485,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2">
         <v>140.81</v>
@@ -1439,19 +1508,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1460,19 +1529,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1481,16 +1550,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1502,16 +1571,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1523,16 +1592,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1563,13 +1632,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1598,10 +1667,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1613,13 +1682,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2">
         <v>7870</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1637,15 +1706,15 @@
         <v>35</v>
       </c>
       <c r="N2" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1657,13 +1726,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2">
         <v>28980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1681,15 +1750,15 @@
         <v>35</v>
       </c>
       <c r="N3" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1701,13 +1770,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2">
         <v>20530</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1725,7 +1794,7 @@
         <v>35</v>
       </c>
       <c r="N4" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1743,13 +1812,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1">
         <v>62.82</v>
@@ -1758,7 +1827,7 @@
         <v>20.51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1">
         <v>37538.65</v>
@@ -1766,16 +1835,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>62.82</v>
@@ -1784,7 +1853,7 @@
         <v>20.51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
         <v>37538.65</v>
@@ -1792,16 +1861,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2">
         <v>19.8335</v>
@@ -1810,7 +1879,7 @@
         <v>67.2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2">
         <v>38831.45</v>
@@ -1818,16 +1887,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2">
         <v>664.39</v>
@@ -1836,7 +1905,7 @@
         <v>27.65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2">
         <v>535221.12</v>
@@ -1844,16 +1913,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2">
         <v>26.46</v>
@@ -1862,7 +1931,7 @@
         <v>26.22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2">
         <v>20213.32</v>
@@ -1870,16 +1939,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" s="2">
         <v>14.192</v>
@@ -1888,7 +1957,7 @@
         <v>14.84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H6" s="2">
         <v>6136.1</v>
@@ -1896,16 +1965,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2">
         <v>365.31</v>
@@ -1914,7 +1983,7 @@
         <v>14.84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2">
         <v>157946.67</v>
@@ -1922,16 +1991,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2">
         <v>569.51</v>
@@ -1940,7 +2009,7 @@
         <v>27.65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2">
         <v>458787.43</v>
@@ -1948,16 +2017,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2">
         <v>619.37</v>
@@ -1966,7 +2035,7 @@
         <v>27.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2">
         <v>498953.79</v>
@@ -1974,16 +2043,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2">
         <v>11.55</v>
@@ -1992,7 +2061,7 @@
         <v>12.35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2">
         <v>4155.89</v>
@@ -2000,16 +2069,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2">
         <v>600.758</v>
@@ -2018,7 +2087,7 @@
         <v>9.81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2">
         <v>171705.26</v>
@@ -2039,160 +2108,160 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2">
         <v>3370214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>3346980</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>1238216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2">
         <v>14845158</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>8482622</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2213,65 +2282,65 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -152,6 +152,9 @@
     <t>100年07月20日</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
   </si>
   <si>
     <t>貿賣</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中國信託商業銀行民族分行</t>
@@ -1036,7 +1042,7 @@
         <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1089,7 +1095,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1142,7 +1148,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>33</v>
@@ -1195,7 +1201,7 @@
         <v>1215000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>33</v>
@@ -1240,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1281,7 +1287,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
         <v>2435</v>
@@ -1290,16 +1296,16 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1335,13 +1341,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
@@ -1356,13 +1362,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -1377,13 +1383,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1400,13 +1406,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1423,16 +1429,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1444,16 +1450,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1465,16 +1471,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2">
         <v>341.63</v>
@@ -1488,16 +1494,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2">
         <v>140.81</v>
@@ -1511,16 +1517,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1532,16 +1538,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1553,13 +1559,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1574,13 +1580,13 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
@@ -1595,13 +1601,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
@@ -1632,13 +1638,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1670,7 +1676,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1682,13 +1688,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>7870</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1714,7 +1720,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1726,13 +1732,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>28980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1758,7 +1764,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1770,13 +1776,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>20530</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1812,13 +1818,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>62.82</v>
@@ -1827,7 +1833,7 @@
         <v>20.51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1">
         <v>37538.65</v>
@@ -1838,13 +1844,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>62.82</v>
@@ -1853,7 +1859,7 @@
         <v>20.51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2">
         <v>37538.65</v>
@@ -1864,13 +1870,13 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2">
         <v>19.8335</v>
@@ -1879,7 +1885,7 @@
         <v>67.2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2">
         <v>38831.45</v>
@@ -1890,13 +1896,13 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2">
         <v>664.39</v>
@@ -1905,7 +1911,7 @@
         <v>27.65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>535221.12</v>
@@ -1916,13 +1922,13 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
         <v>26.46</v>
@@ -1931,7 +1937,7 @@
         <v>26.22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2">
         <v>20213.32</v>
@@ -1942,13 +1948,13 @@
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2">
         <v>14.192</v>
@@ -1957,7 +1963,7 @@
         <v>14.84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
         <v>6136.1</v>
@@ -1968,13 +1974,13 @@
         <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
         <v>365.31</v>
@@ -1983,7 +1989,7 @@
         <v>14.84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2">
         <v>157946.67</v>
@@ -1994,13 +2000,13 @@
         <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E8" s="2">
         <v>569.51</v>
@@ -2009,7 +2015,7 @@
         <v>27.65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2">
         <v>458787.43</v>
@@ -2020,13 +2026,13 @@
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E9" s="2">
         <v>619.37</v>
@@ -2035,7 +2041,7 @@
         <v>27.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2">
         <v>498953.79</v>
@@ -2046,13 +2052,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2">
         <v>11.55</v>
@@ -2061,7 +2067,7 @@
         <v>12.35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2">
         <v>4155.89</v>
@@ -2072,13 +2078,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2">
         <v>600.758</v>
@@ -2087,7 +2093,7 @@
         <v>9.81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2">
         <v>171705.26</v>
@@ -2108,22 +2114,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2131,22 +2137,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2154,22 +2160,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>3370214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2177,22 +2183,22 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2">
         <v>3346980</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2200,22 +2206,22 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>1238216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2223,22 +2229,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>14845158</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2246,22 +2252,22 @@
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2">
         <v>8482622</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2282,19 +2288,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2305,19 +2311,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2328,19 +2334,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -170,33 +170,42 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中國信託商業銀行民族分行</t>
   </si>
   <si>
+    <t>中國信託銀行民族分行</t>
+  </si>
+  <si>
+    <t>高雄凹仔底郵局(高雄82支）</t>
+  </si>
+  <si>
+    <t>匯豐（台灣）商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>台灣銀行大昌分行</t>
+  </si>
+  <si>
+    <t>台灣銀行群賢分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>&gt;舌期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中國信託銀行民族分行</t>
-  </si>
-  <si>
-    <t>高雄凹仔底郵局(高雄82支）</t>
-  </si>
-  <si>
-    <t>匯豐（台灣）商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>台灣銀行大昌分行</t>
-  </si>
-  <si>
-    <t>台灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>&gt;舌期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -209,13 +218,13 @@
     <t>陳〇通</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>環球水泥股份有限公司</t>
@@ -1333,13 +1342,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1350,271 +1359,523 @@
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>45556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>45556</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
+        <v>734</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="2">
-        <v>730.12</v>
-      </c>
-      <c r="G3" s="2">
         <v>21272.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2">
+        <v>734</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>500</v>
-      </c>
-      <c r="G4" s="2">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>734</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2">
+        <v>25625</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <v>734</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>25625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4840</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <v>734</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>4840</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9953.39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>734</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
         <v>52</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2">
-        <v>341.63</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9953.39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2">
-        <v>140.81</v>
-      </c>
-      <c r="G8" s="2">
         <v>4102.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>734</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2">
         <v>1808</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>734</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2">
         <v>606</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>734</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>917643</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>734</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>7508</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2">
+        <v>734</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>19000</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2">
+        <v>734</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1638,13 +1899,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1676,7 +1937,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1688,13 +1949,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
         <v>7870</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1720,7 +1981,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1732,13 +1993,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
         <v>28980</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1764,7 +2025,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1776,13 +2037,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
         <v>20530</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1818,13 +2079,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1">
         <v>62.82</v>
@@ -1833,7 +2094,7 @@
         <v>20.51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1">
         <v>37538.65</v>
@@ -1844,13 +2105,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>62.82</v>
@@ -1859,7 +2120,7 @@
         <v>20.51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2">
         <v>37538.65</v>
@@ -1870,13 +2131,13 @@
         <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>19.8335</v>
@@ -1885,7 +2146,7 @@
         <v>67.2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2">
         <v>38831.45</v>
@@ -1896,13 +2157,13 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>664.39</v>
@@ -1911,7 +2172,7 @@
         <v>27.65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2">
         <v>535221.12</v>
@@ -1922,13 +2183,13 @@
         <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>26.46</v>
@@ -1937,7 +2198,7 @@
         <v>26.22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2">
         <v>20213.32</v>
@@ -1948,13 +2209,13 @@
         <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2">
         <v>14.192</v>
@@ -1963,7 +2224,7 @@
         <v>14.84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2">
         <v>6136.1</v>
@@ -1974,13 +2235,13 @@
         <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2">
         <v>365.31</v>
@@ -1989,7 +2250,7 @@
         <v>14.84</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2">
         <v>157946.67</v>
@@ -2000,13 +2261,13 @@
         <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2">
         <v>569.51</v>
@@ -2015,7 +2276,7 @@
         <v>27.65</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2">
         <v>458787.43</v>
@@ -2026,13 +2287,13 @@
         <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2">
         <v>619.37</v>
@@ -2041,7 +2302,7 @@
         <v>27.65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2">
         <v>498953.79</v>
@@ -2052,13 +2313,13 @@
         <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2">
         <v>11.55</v>
@@ -2067,7 +2328,7 @@
         <v>12.35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2">
         <v>4155.89</v>
@@ -2078,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2">
         <v>600.758</v>
@@ -2093,7 +2354,7 @@
         <v>9.81</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2">
         <v>171705.26</v>
@@ -2114,22 +2375,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2137,22 +2398,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2160,22 +2421,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2">
         <v>3370214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2183,22 +2444,22 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2">
         <v>3346980</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2206,22 +2467,22 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2">
         <v>1238216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2229,22 +2490,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E6" s="2">
         <v>14845158</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2252,22 +2513,22 @@
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>8482622</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2288,19 +2549,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2311,19 +2572,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2334,19 +2595,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -239,28 +239,34 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>富達新興市場基金</t>
   </si>
   <si>
+    <t>富達新興市場基金(美元）</t>
+  </si>
+  <si>
+    <t>貝萊德美國優質債券基金</t>
+  </si>
+  <si>
+    <t>天達環球債券基金</t>
+  </si>
+  <si>
+    <t>瀚亞美國優質債券基金</t>
+  </si>
+  <si>
+    <t>摩根富林明俄羅斯基金</t>
+  </si>
+  <si>
+    <t>美國政府基金</t>
+  </si>
+  <si>
     <t>中國信託商業銀行</t>
   </si>
   <si>
-    <t>富達新興市場基金(美元）</t>
-  </si>
-  <si>
-    <t>貝萊德美國優質債券基金</t>
-  </si>
-  <si>
-    <t>天達環球債券基金</t>
-  </si>
-  <si>
-    <t>瀚亞美國優質債券基金</t>
-  </si>
-  <si>
-    <t>摩根富林明俄羅斯基金</t>
-  </si>
-  <si>
-    <t>美國政府基金</t>
+    <t>fund</t>
   </si>
   <si>
     <t>種類</t>
@@ -2071,47 +2077,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1">
-        <v>62.82</v>
-      </c>
-      <c r="F1" s="1">
-        <v>20.51</v>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1">
-        <v>37538.65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>62.82</v>
@@ -2125,8 +2152,29 @@
       <c r="H2" s="2">
         <v>37538.65</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>734</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>78</v>
       </c>
@@ -2137,7 +2185,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>19.8335</v>
@@ -2151,8 +2199,29 @@
       <c r="H3" s="2">
         <v>38831.45</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2">
+        <v>734</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>79</v>
       </c>
@@ -2163,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>664.39</v>
@@ -2177,8 +2246,29 @@
       <c r="H4" s="2">
         <v>535221.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="2">
+        <v>734</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>80</v>
       </c>
@@ -2189,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>26.46</v>
@@ -2203,8 +2293,29 @@
       <c r="H5" s="2">
         <v>20213.32</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="2">
+        <v>734</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>81</v>
       </c>
@@ -2215,7 +2326,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2">
         <v>14.192</v>
@@ -2229,8 +2340,29 @@
       <c r="H6" s="2">
         <v>6136.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="2">
+        <v>734</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>82</v>
       </c>
@@ -2241,7 +2373,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2">
         <v>365.31</v>
@@ -2255,8 +2387,29 @@
       <c r="H7" s="2">
         <v>157946.67</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="2">
+        <v>734</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>83</v>
       </c>
@@ -2267,7 +2420,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <v>569.51</v>
@@ -2281,8 +2434,29 @@
       <c r="H8" s="2">
         <v>458787.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="2">
+        <v>734</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>84</v>
       </c>
@@ -2293,7 +2467,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2">
         <v>619.37</v>
@@ -2307,8 +2481,29 @@
       <c r="H9" s="2">
         <v>498953.79</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="2">
+        <v>734</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>85</v>
       </c>
@@ -2319,7 +2514,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2">
         <v>11.55</v>
@@ -2333,8 +2528,29 @@
       <c r="H10" s="2">
         <v>4155.89</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="2">
+        <v>734</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>86</v>
       </c>
@@ -2345,7 +2561,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2">
         <v>600.758</v>
@@ -2358,6 +2574,27 @@
       </c>
       <c r="H11" s="2">
         <v>171705.26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2">
+        <v>734</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="2">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2375,22 +2612,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2398,22 +2635,22 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2421,22 +2658,22 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>3370214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2444,22 +2681,22 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>3346980</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2467,22 +2704,22 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2">
         <v>1238216</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2490,22 +2727,22 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2">
         <v>14845158</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2513,22 +2750,22 @@
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>8482622</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2549,19 +2786,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2572,19 +2809,19 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2595,19 +2832,19 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2">
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
+++ b/legislator/property/output/normal/陳其邁_2012-04-25_財產申報表_tmpa37b1.xlsx
@@ -13,7 +13,7 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="債權" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
     <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -269,22 +269,10 @@
     <t>fund</t>
   </si>
   <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -323,25 +311,37 @@
     <t>貸款</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>吳虹婦產科診所</t>
   </si>
   <si>
+    <t>蓬萊島雜誌社</t>
+  </si>
+  <si>
     <t>高雄市新庄仔路273號</t>
   </si>
   <si>
     <t>94年09月01曰</t>
   </si>
   <si>
+    <t>98年08月10闩</t>
+  </si>
+  <si>
     <t>開業</t>
   </si>
   <si>
-    <t>蓬萊島雜誌社</t>
-  </si>
-  <si>
-    <t>98年08月10闩</t>
-  </si>
-  <si>
     <t>復刊</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2604,13 +2604,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
@@ -2618,154 +2618,257 @@
         <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3370214</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>734</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3346980</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>734</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E4" s="2">
+        <v>1238216</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2">
+        <v>734</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>108</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3370214</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>109</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3346980</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E5" s="2">
+        <v>14845158</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>110</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1238216</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2">
+        <v>734</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
-        <v>14845158</v>
+        <v>8482622</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2">
+        <v>734</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="2">
         <v>112</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8482622</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2775,33 +2878,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>117</v>
       </c>
@@ -2809,7 +2933,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>101</v>
@@ -2821,10 +2945,31 @@
         <v>102</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>734</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>118</v>
       </c>
@@ -2832,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>101</v>
@@ -2841,10 +2986,31 @@
         <v>100000</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2">
+        <v>734</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
